--- a/public/assets/result/Budiono_3.xlsx
+++ b/public/assets/result/Budiono_3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -175,13 +175,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>ROHIM B.</t>
+    <t>BUDIONO</t>
   </si>
 </sst>
 </file>
@@ -934,16 +931,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K13" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L13" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -971,19 +968,19 @@
         <v>25</v>
       </c>
       <c r="I14" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J14" s="5">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="K14" s="5">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="L14" s="5">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14"/>
     </row>
@@ -1045,16 +1042,16 @@
         <v>30</v>
       </c>
       <c r="I16" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J16" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K16" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L16" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1082,16 +1079,16 @@
         <v>31</v>
       </c>
       <c r="I17" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J17" s="5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K17" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L17" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -1119,16 +1116,16 @@
         <v>24</v>
       </c>
       <c r="I18" s="5">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J18" s="5">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K18" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L18" s="5">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -1156,16 +1153,16 @@
         <v>25</v>
       </c>
       <c r="I19" s="5">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L19" s="5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1230,16 +1227,16 @@
         <v>27</v>
       </c>
       <c r="I21" s="5">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J21" s="5">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K21" s="5">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L21" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1304,19 +1301,19 @@
         <v>25</v>
       </c>
       <c r="I23" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L23" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M23" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23"/>
     </row>
@@ -1378,16 +1375,16 @@
         <v>27</v>
       </c>
       <c r="I25" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J25" s="5">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K25" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L25" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M25" s="5">
         <v>2</v>
@@ -1415,16 +1412,16 @@
         <v>38</v>
       </c>
       <c r="I26" s="5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J26" s="5">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K26" s="5">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L26" s="5">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M26" s="5">
         <v>2</v>
@@ -1452,19 +1449,19 @@
         <v>24</v>
       </c>
       <c r="I27" s="5">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J27" s="5">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="K27" s="5">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="L27" s="5">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="M27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27"/>
     </row>
@@ -1526,16 +1523,16 @@
         <v>27</v>
       </c>
       <c r="I29" s="5">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J29" s="5">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K29" s="5">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L29" s="5">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M29" s="5">
         <v>2</v>
@@ -1600,16 +1597,16 @@
         <v>24</v>
       </c>
       <c r="I31" s="5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J31" s="5">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K31" s="5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L31" s="5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M31" s="5">
         <v>2</v>
@@ -1637,19 +1634,19 @@
         <v>25</v>
       </c>
       <c r="I32" s="5">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="J32" s="5">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="K32" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L32" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M32" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32"/>
     </row>
@@ -1674,16 +1671,16 @@
         <v>38</v>
       </c>
       <c r="I33" s="5">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J33" s="5">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="K33" s="5">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L33" s="5">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M33" s="5">
         <v>2</v>
@@ -1711,16 +1708,16 @@
         <v>30</v>
       </c>
       <c r="I34" s="5">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J34" s="5">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="K34" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="L34" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="M34" s="5">
         <v>2</v>
@@ -1748,19 +1745,19 @@
         <v>25</v>
       </c>
       <c r="I35" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J35" s="5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="K35" s="5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L35" s="5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="M35" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35"/>
     </row>
@@ -1785,19 +1782,19 @@
         <v>30</v>
       </c>
       <c r="I36" s="5">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J36" s="5">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K36" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="L36" s="5">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="M36" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36"/>
     </row>
@@ -1859,16 +1856,16 @@
         <v>24</v>
       </c>
       <c r="I38" s="5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J38" s="5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="K38" s="5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L38" s="5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M38" s="5">
         <v>2</v>
@@ -1896,19 +1893,19 @@
         <v>25</v>
       </c>
       <c r="I39" s="5">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J39" s="5">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="K39" s="5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="L39" s="5">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="M39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39"/>
     </row>
@@ -1957,9 +1954,7 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="K45" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="N45" s="1"/>
     </row>
@@ -1975,10 +1970,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="D48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="L48" s="4"/>
       <c r="N48" s="1"/>
